--- a/5. RPT/2018-2019/RPT Mhs TO STTYBSI Tasikmalaya 2017-2018.xlsx
+++ b/5. RPT/2018-2019/RPT Mhs TO STTYBSI Tasikmalaya 2017-2018.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DATA UNTUK RIRIN\5. RPT\2018-2019\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4665" yWindow="0" windowWidth="2325" windowHeight="1290"/>
   </bookViews>
@@ -45,7 +40,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'tanda terima MI'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TO!$A$36:$E$73</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -775,7 +770,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -3218,30 +3213,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="25" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="25" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="25" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="34" fillId="25" borderId="78" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="34" fillId="25" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="34" fillId="25" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="26" fillId="25" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3261,7 +3232,31 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="41" fontId="26" fillId="25" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="25" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="25" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="25" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="34" fillId="25" borderId="78" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="34" fillId="25" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="34" fillId="25" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3687,7 +3682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3722,7 +3717,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3938,10 +3933,10 @@
   <dimension ref="A1:BD461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AH5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomRight" activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4019,128 +4014,128 @@
     </row>
     <row r="4" spans="1:56" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:56" s="36" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="194" t="s">
+      <c r="C5" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="194" t="s">
+      <c r="D5" s="198" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="194" t="s">
+      <c r="F5" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="194" t="s">
+      <c r="G5" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194" t="s">
+      <c r="H5" s="198"/>
+      <c r="I5" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="194" t="s">
+      <c r="J5" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="205" t="s">
+      <c r="K5" s="199" t="s">
         <v>189</v>
       </c>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="193" t="s">
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="O5" s="193"/>
-      <c r="P5" s="193"/>
-      <c r="Q5" s="193" t="s">
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="R5" s="193"/>
-      <c r="S5" s="193"/>
-      <c r="T5" s="193" t="s">
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197" t="s">
         <v>191</v>
       </c>
-      <c r="U5" s="193"/>
-      <c r="V5" s="193"/>
-      <c r="W5" s="193" t="s">
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197" t="s">
         <v>192</v>
       </c>
-      <c r="X5" s="193"/>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="193" t="s">
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197" t="s">
         <v>137</v>
       </c>
-      <c r="AA5" s="193"/>
-      <c r="AB5" s="193"/>
-      <c r="AC5" s="193" t="s">
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197" t="s">
         <v>138</v>
       </c>
-      <c r="AD5" s="193"/>
-      <c r="AE5" s="193"/>
-      <c r="AF5" s="193" t="s">
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197" t="s">
         <v>162</v>
       </c>
-      <c r="AG5" s="193"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193" t="s">
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197" t="s">
         <v>163</v>
       </c>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
-      <c r="AL5" s="193" t="s">
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="197" t="s">
         <v>136</v>
       </c>
-      <c r="AM5" s="193"/>
-      <c r="AN5" s="193"/>
-      <c r="AO5" s="193" t="s">
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="AP5" s="193"/>
-      <c r="AQ5" s="193"/>
-      <c r="AR5" s="199" t="s">
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="AS5" s="200"/>
-      <c r="AT5" s="201"/>
-      <c r="AU5" s="199" t="s">
+      <c r="AS5" s="192"/>
+      <c r="AT5" s="193"/>
+      <c r="AU5" s="191" t="s">
         <v>195</v>
       </c>
-      <c r="AV5" s="200"/>
-      <c r="AW5" s="201"/>
-      <c r="AX5" s="199" t="s">
+      <c r="AV5" s="192"/>
+      <c r="AW5" s="193"/>
+      <c r="AX5" s="191" t="s">
         <v>196</v>
       </c>
-      <c r="AY5" s="200"/>
-      <c r="AZ5" s="201"/>
-      <c r="BA5" s="193" t="s">
+      <c r="AY5" s="192"/>
+      <c r="AZ5" s="193"/>
+      <c r="BA5" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="BB5" s="193"/>
+      <c r="BB5" s="197"/>
       <c r="BC5" s="127"/>
       <c r="BD5" s="176"/>
     </row>
     <row r="6" spans="1:56" s="37" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="194"/>
-      <c r="B6" s="195"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
       <c r="E6" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="194"/>
+      <c r="F6" s="198"/>
       <c r="G6" s="124" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="198"/>
       <c r="K6" s="67" t="s">
         <v>8</v>
       </c>
@@ -4641,28 +4636,32 @@
       <c r="AF9" s="122">
         <v>780000</v>
       </c>
-      <c r="AG9" s="62">
-        <v>300000</v>
+      <c r="AG9" s="122">
+        <v>780000</v>
       </c>
       <c r="AH9" s="63">
         <f t="shared" si="6"/>
-        <v>480000</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="62">
         <v>780000</v>
       </c>
-      <c r="AJ9" s="62"/>
+      <c r="AJ9" s="122">
+        <v>780000</v>
+      </c>
       <c r="AK9" s="63">
         <f t="shared" si="7"/>
-        <v>780000</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="62">
         <v>780000</v>
       </c>
-      <c r="AM9" s="62"/>
+      <c r="AM9" s="62">
+        <v>40000</v>
+      </c>
       <c r="AN9" s="63">
         <f t="shared" si="8"/>
-        <v>780000</v>
+        <v>740000</v>
       </c>
       <c r="AO9" s="62">
         <v>760000</v>
@@ -4683,11 +4682,11 @@
       <c r="AZ9" s="123"/>
       <c r="BA9" s="68">
         <f t="shared" si="9"/>
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="BB9" s="68">
         <f t="shared" si="10"/>
-        <v>7200000</v>
+        <v>8500000</v>
       </c>
       <c r="BC9" s="178">
         <f t="shared" si="13"/>
@@ -6321,28 +6320,32 @@
       <c r="AF20" s="122">
         <v>780000</v>
       </c>
-      <c r="AG20" s="62">
-        <v>100000</v>
+      <c r="AG20" s="122">
+        <v>780000</v>
       </c>
       <c r="AH20" s="63">
         <f t="shared" ref="AH20" si="31">AF20-AG20</f>
-        <v>680000</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="122">
         <v>780000</v>
       </c>
-      <c r="AJ20" s="62"/>
+      <c r="AJ20" s="122">
+        <v>780000</v>
+      </c>
       <c r="AK20" s="63">
         <f t="shared" ref="AK20" si="32">AI20-AJ20</f>
-        <v>780000</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="122">
         <v>780000</v>
       </c>
-      <c r="AM20" s="62"/>
+      <c r="AM20" s="62">
+        <v>540000</v>
+      </c>
       <c r="AN20" s="63">
         <f t="shared" ref="AN20" si="33">AL20-AM20</f>
-        <v>780000</v>
+        <v>240000</v>
       </c>
       <c r="AO20" s="62">
         <v>760000</v>
@@ -6363,11 +6366,11 @@
       <c r="AZ20" s="123"/>
       <c r="BA20" s="68">
         <f t="shared" si="9"/>
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="BB20" s="68">
         <f t="shared" si="10"/>
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="BC20" s="178">
         <f t="shared" si="13"/>
@@ -7691,12 +7694,12 @@
       </c>
     </row>
     <row r="32" spans="1:55" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="196" t="s">
+      <c r="A32" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="197"/>
-      <c r="C32" s="197"/>
-      <c r="D32" s="198"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="205"/>
       <c r="E32" s="157">
         <f>SUM(E7:E31)</f>
         <v>13790000</v>
@@ -7811,11 +7814,11 @@
       </c>
       <c r="AG32" s="64">
         <f t="shared" si="73"/>
-        <v>11144000</v>
+        <v>12304000</v>
       </c>
       <c r="AH32" s="64">
         <f t="shared" si="73"/>
-        <v>4456000</v>
+        <v>3296000</v>
       </c>
       <c r="AI32" s="64">
         <f t="shared" si="73"/>
@@ -7823,11 +7826,11 @@
       </c>
       <c r="AJ32" s="64">
         <f t="shared" si="73"/>
-        <v>8760000</v>
+        <v>10320000</v>
       </c>
       <c r="AK32" s="64">
         <f t="shared" si="73"/>
-        <v>6840000</v>
+        <v>5280000</v>
       </c>
       <c r="AL32" s="64">
         <f t="shared" si="73"/>
@@ -7835,11 +7838,11 @@
       </c>
       <c r="AM32" s="64">
         <f t="shared" si="73"/>
-        <v>7360000</v>
+        <v>7940000</v>
       </c>
       <c r="AN32" s="64">
         <f t="shared" si="73"/>
-        <v>8240000</v>
+        <v>7660000</v>
       </c>
       <c r="AO32" s="64">
         <f t="shared" si="73"/>
@@ -7895,7 +7898,7 @@
       </c>
       <c r="BB32" s="147">
         <f>(L32+O32+R32+U32+X32+AA32+AD32+AG32+AJ32+AM32+AP32)</f>
-        <v>167404000</v>
+        <v>170704000</v>
       </c>
       <c r="BC32" s="179">
         <f>SUM(BC7:BC28)</f>
@@ -8050,13 +8053,13 @@
       <c r="AZ35" s="18"/>
     </row>
     <row r="36" spans="1:54" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="202" t="s">
+      <c r="A36" s="194" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="203"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="204"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="196"/>
       <c r="F36" s="38"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
@@ -8324,11 +8327,11 @@
       </c>
       <c r="D40" s="24">
         <f t="shared" si="78"/>
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="E40" s="24">
         <f t="shared" si="79"/>
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
@@ -9085,11 +9088,11 @@
       </c>
       <c r="D51" s="24">
         <f t="shared" si="78"/>
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="E51" s="24">
         <f t="shared" si="79"/>
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
@@ -9903,18 +9906,18 @@
       <c r="BA62" s="20"/>
     </row>
     <row r="63" spans="1:55" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="191" t="s">
+      <c r="A63" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="191"/>
-      <c r="C63" s="192"/>
+      <c r="B63" s="200"/>
+      <c r="C63" s="201"/>
       <c r="D63" s="128">
         <f>SUM(D38:D61)</f>
-        <v>47386000</v>
+        <v>44086000</v>
       </c>
       <c r="E63" s="128">
         <f>SUM(E38:E61)</f>
-        <v>47386000</v>
+        <v>44086000</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
@@ -9971,7 +9974,7 @@
       <c r="C64" s="20"/>
       <c r="D64" s="189">
         <f>D63-D57-D56</f>
-        <v>23096000</v>
+        <v>19796000</v>
       </c>
       <c r="E64" s="188" t="s">
         <v>239</v>
@@ -30103,16 +30106,6 @@
     <sortCondition ref="C77"/>
   </sortState>
   <mergeCells count="26">
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="AO5:AQ5"/>
     <mergeCell ref="W5:Y5"/>
@@ -30129,6 +30122,16 @@
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -33741,15 +33744,15 @@
       </c>
       <c r="J16" s="47">
         <f>TO!AG32</f>
-        <v>11144000</v>
+        <v>12304000</v>
       </c>
       <c r="K16" s="47">
         <f>TO!AJ32</f>
-        <v>8760000</v>
+        <v>10320000</v>
       </c>
       <c r="L16" s="47">
         <f>TO!AM32</f>
-        <v>7360000</v>
+        <v>7940000</v>
       </c>
       <c r="M16" s="47">
         <f>TO!AP32</f>
@@ -33769,12 +33772,12 @@
       </c>
       <c r="Q16" s="54">
         <f>SUM(C16:P16)</f>
-        <v>167404000</v>
+        <v>170704000</v>
       </c>
       <c r="R16" s="52"/>
       <c r="S16" s="2">
         <f>SUM(C16:R16)</f>
-        <v>334808000</v>
+        <v>341408000</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -33831,7 +33834,7 @@
       </c>
       <c r="S18" s="2">
         <f>SUM(S16:S17)</f>
-        <v>334808000</v>
+        <v>341408000</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -34018,15 +34021,15 @@
       </c>
       <c r="J24" s="47">
         <f t="shared" si="0"/>
-        <v>4456000</v>
+        <v>3296000</v>
       </c>
       <c r="K24" s="47">
         <f t="shared" si="0"/>
-        <v>6840000</v>
+        <v>5280000</v>
       </c>
       <c r="L24" s="47">
         <f t="shared" si="0"/>
-        <v>8240000</v>
+        <v>7660000</v>
       </c>
       <c r="M24" s="47">
         <f t="shared" si="0"/>
@@ -34046,12 +34049,12 @@
       </c>
       <c r="Q24" s="54">
         <f>SUM(C24:P24)</f>
-        <v>42096000</v>
+        <v>38796000</v>
       </c>
       <c r="R24" s="52"/>
       <c r="S24" s="2">
         <f>SUM(C24:R24)</f>
-        <v>84192000</v>
+        <v>77592000</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
